--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35E6F9E-F355-4F4B-B6D0-6ECFD9A15F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746973F-B1F2-4C34-9ECD-314EC7D5235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19635" yWindow="5355" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,9 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-1001~2000：通用类型界面（Tip，Confirm界面等）
-2001~3000：登录，设置等系统界面
-3001~4000：系统向玩法的界面
-5001~6000：战斗向玩法的界面</t>
+1001~2000：Normal
+2001~3000：PopUp
+3001~4000：Top</t>
         </r>
       </text>
     </comment>
@@ -84,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>skip</t>
   </si>
@@ -98,12 +97,6 @@
     <t>界面组名称</t>
   </si>
   <si>
-    <t>是否允许多个界面实例</t>
-  </si>
-  <si>
-    <t>是否隐藏被其覆盖的界面</t>
-  </si>
-  <si>
     <t>资源路径</t>
   </si>
   <si>
@@ -123,12 +116,6 @@
   </si>
   <si>
     <t>UIGroupName</t>
-  </si>
-  <si>
-    <t>AllowMultiInstance</t>
-  </si>
-  <si>
-    <t>PauseCoveredUIForm</t>
   </si>
   <si>
     <t>AssetPath</t>
@@ -211,9 +198,6 @@
     <t>Normal</t>
   </si>
   <si>
-    <t>Login/Prefabs/UILogin/UILoginMainForm</t>
-  </si>
-  <si>
     <r>
       <t>UIForm/UICommon/UITips</t>
     </r>
@@ -271,10 +255,6 @@
   </si>
   <si>
     <t>Normal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>skip</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -310,14 +290,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Loading/LoadingWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Login/LoginWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UIForm/Loading/LoadingWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,11 +302,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Battle/BattleWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>UIForm/Battle/BattleWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login/Prefabs/UILogin/UILoginMainForm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameAssets/Art2D/UI/Login/LoginWindow.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameAssets/Art2D/UI/Battle/BattleWindow.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameAssets/Art2D/UI/LoadingWindow/LoadingWindow.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -425,16 +409,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -446,6 +427,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -784,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H63"/>
+  <dimension ref="A2:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -795,10 +785,9 @@
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="23.875" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="24" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
-    <col min="7" max="7" width="63.75" customWidth="1"/>
-    <col min="8" max="8" width="56.625" customWidth="1"/>
+    <col min="5" max="5" width="75.875" customWidth="1"/>
+    <col min="6" max="6" width="56.625" customWidth="1"/>
+    <col min="7" max="8" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
@@ -814,17 +803,11 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.15">
@@ -832,438 +815,390 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="5"/>
-      <c r="B4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>36</v>
+      <c r="A5" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>36</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>31</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>36</v>
+      <c r="A7" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>36</v>
       </c>
       <c r="B8">
         <v>5</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E8">
+      <c r="D8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>1001</v>
       </c>
-      <c r="C10" t="s">
-        <v>38</v>
+      <c r="C10" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="F10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11">
-        <v>2001</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>43</v>
-      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>2002</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>3001</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="8"/>
-      <c r="D14" s="7"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B17" s="7"/>
-      <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B19" s="7"/>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B23" s="7"/>
-      <c r="E23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="C28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="D32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-    </row>
-    <row r="45" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C50" s="7"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C51" s="7"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C52" s="7"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="G55" s="7"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C56" s="7"/>
-      <c r="D56" s="7"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D60" s="7"/>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="D61" s="7"/>
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.15">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
+      <c r="B16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D17" s="6"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+      <c r="D18" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B23" s="6"/>
+      <c r="D23" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="6"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E54" s="6"/>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F746973F-B1F2-4C34-9ECD-314EC7D5235C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B02BED-1E56-4F5E-AC00-B3B807FB418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10350" yWindow="5115" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>skip</t>
   </si>
@@ -116,9 +116,6 @@
   </si>
   <si>
     <t>UIGroupName</t>
-  </si>
-  <si>
-    <t>AssetPath</t>
   </si>
   <si>
     <t>LuaFile</t>
@@ -319,6 +316,22 @@
   </si>
   <si>
     <t>Assets/GameAssets/Art2D/UI/LoadingWindow/LoadingWindow.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AssetName</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/GameAssets/Art2D/UI/Sound/SoundWindow.prefab</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Sound/SoundWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -774,10 +787,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H62"/>
+  <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -844,10 +857,10 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="11"/>
@@ -860,16 +873,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -882,16 +895,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="E6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
       <c r="F6" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -904,16 +917,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -926,16 +939,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
       <c r="F8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -948,16 +961,16 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -967,16 +980,16 @@
         <v>1001</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -986,68 +999,82 @@
         <v>1002</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>36</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>37</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12">
-        <v>3001</v>
-      </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" t="s">
-        <v>33</v>
+        <v>1003</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C13" s="7"/>
-      <c r="D13" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D15" s="6"/>
+      <c r="B13">
+        <v>3001</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C14" s="7"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B22" s="6"/>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
-      <c r="D23" s="6"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B24" s="6"/>
+      <c r="D24" s="6"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C26" s="6"/>
@@ -1059,13 +1086,12 @@
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -1084,6 +1110,7 @@
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -1143,6 +1170,7 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
@@ -1151,7 +1179,6 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
@@ -1165,14 +1192,13 @@
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="54" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E54" s="6"/>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
     </row>
     <row r="56" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C56" s="6"/>
@@ -1186,19 +1212,25 @@
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
     </row>
-    <row r="59" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D59" s="6"/>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-    </row>
-    <row r="62" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B02BED-1E56-4F5E-AC00-B3B807FB418E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52BCC2-9C71-4A0C-90C1-25AAA9E29958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10350" yWindow="5115" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18930" yWindow="4710" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
   <si>
     <t>skip</t>
   </si>
@@ -127,22 +127,13 @@
     <t>Top</t>
   </si>
   <si>
-    <t>Common/Prefabs/UICommon/UITipsForm</t>
-  </si>
-  <si>
     <t>UIMessageBoxForm</t>
   </si>
   <si>
     <t>PopUp</t>
   </si>
   <si>
-    <t>Common/Prefabs/UICommon/UIMessageBoxForm</t>
-  </si>
-  <si>
     <t>UICommonMask</t>
-  </si>
-  <si>
-    <t>Common/Prefabs/UICommon/UICommonMaskForm</t>
   </si>
   <si>
     <r>
@@ -165,9 +156,6 @@
       </rPr>
       <t>Form</t>
     </r>
-  </si>
-  <si>
-    <t>Common/Prefabs/UICommon/UIReconnectForm</t>
   </si>
   <si>
     <r>
@@ -303,31 +291,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Login/Prefabs/UILogin/UILoginMainForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/UI/Login/LoginWindow.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/UI/Battle/BattleWindow.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/UI/LoadingWindow/LoadingWindow.prefab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AssetName</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>SoundWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Assets/GameAssets/Art2D/UI/Sound/SoundWindow.prefab</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -790,7 +758,7 @@
   <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -857,7 +825,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
@@ -879,10 +847,10 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -895,16 +863,16 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -917,16 +885,16 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" t="s">
-        <v>19</v>
-      </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -939,16 +907,16 @@
         <v>5</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -961,16 +929,16 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -980,16 +948,16 @@
         <v>1001</v>
       </c>
       <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>30</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>34</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -999,16 +967,16 @@
         <v>1002</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1018,16 +986,16 @@
         <v>1003</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1037,16 +1005,16 @@
         <v>3001</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>40</v>
+        <v>28</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>

--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52BCC2-9C71-4A0C-90C1-25AAA9E29958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46445FE1-89DC-4F1E-9C7C-357B866C6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18930" yWindow="4710" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28095" yWindow="6405" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
   <si>
     <t>skip</t>
   </si>
@@ -284,10 +284,6 @@
   </si>
   <si>
     <t>BattleWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm/Battle/BattleWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -758,7 +754,7 @@
   <dimension ref="A2:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -825,7 +821,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
@@ -975,9 +971,7 @@
       <c r="E11" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>32</v>
-      </c>
+      <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
     </row>
@@ -986,16 +980,16 @@
         <v>1003</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>

--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46445FE1-89DC-4F1E-9C7C-357B866C6C40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8A03F-710F-4AAE-B9C8-06C3243C0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28095" yWindow="6405" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27735" yWindow="5625" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>skip</t>
   </si>
@@ -119,124 +119,6 @@
   </si>
   <si>
     <t>LuaFile</t>
-  </si>
-  <si>
-    <t>UITipsForm</t>
-  </si>
-  <si>
-    <t>Top</t>
-  </si>
-  <si>
-    <t>UIMessageBoxForm</t>
-  </si>
-  <si>
-    <t>PopUp</t>
-  </si>
-  <si>
-    <t>UICommonMask</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UIReconnect</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>UILoginMain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-  </si>
-  <si>
-    <t>Normal</t>
-  </si>
-  <si>
-    <r>
-      <t>UIForm/UICommon/UITips</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UIForm/UICommon/UIMessageBox</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm/UICommon/UICommonMaskForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm/UICommon/UIReconnectForm</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>UIForm/UILogin/UILoginMain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Form</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Normal</t>
@@ -291,11 +173,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>SoundWindow</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>UIForm/Sound/SoundWindow</t>
+    <t>SettingWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PauseWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>HelpWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Setting/SettingWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Pause/PauseWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Help/HelpWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -751,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H63"/>
+  <dimension ref="A2:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -821,7 +719,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>11</v>
@@ -830,249 +728,192 @@
       <c r="H4" s="11"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>14</v>
+        <v>1002</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>21</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B7">
-        <v>4</v>
-      </c>
-      <c r="C7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
+        <v>1003</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
       <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>1004</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="6">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+      <c r="B9">
+        <v>1005</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>1001</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>26</v>
+        <v>3001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>26</v>
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B11">
-        <v>1002</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B12">
-        <v>1003</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B13">
-        <v>3001</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
+      <c r="D13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C14" s="7"/>
+      <c r="B14" s="6"/>
       <c r="D14" s="6"/>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="D15" s="6"/>
+    </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B19" s="6"/>
-      <c r="D19" s="6"/>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B21" s="6"/>
+      <c r="D21" s="6"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B24" s="6"/>
-      <c r="D24" s="6"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
     </row>
@@ -1122,12 +963,10 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
     </row>
@@ -1137,62 +976,49 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C49" s="6"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-    </row>
-    <row r="51" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-    </row>
     <row r="52" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C52" s="6"/>
       <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
     </row>
     <row r="55" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-    </row>
-    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F55" s="6"/>
     </row>
     <row r="57" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
     </row>
     <row r="60" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C60" s="6"/>
       <c r="D60" s="6"/>
-    </row>
-    <row r="61" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-    </row>
-    <row r="63" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
+++ b/Excel2FlatBuffers/ExcelTable/UIWindow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\UnityProject\BiuBiu\Excel2FlatBuffers\ExcelTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F8A03F-710F-4AAE-B9C8-06C3243C0F28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74443E85-7910-44C0-84AB-383F02DCB7ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27735" yWindow="5625" windowWidth="27435" windowHeight="13920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10335" yWindow="3525" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UIWindow" sheetId="1" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>skip</t>
   </si>
@@ -194,6 +194,14 @@
   </si>
   <si>
     <t>UIForm/Help/HelpWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DialogueWindow</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UIForm/Dialogue/DialogueWindow</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -649,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:H60"/>
+  <dimension ref="A2:H61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -822,52 +830,66 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10">
-        <v>3001</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
+        <v>1006</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="C11" s="7"/>
-      <c r="D11" s="6"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="D13" s="6"/>
+      <c r="B11">
+        <v>3001</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="C12" s="7"/>
+      <c r="D12" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
       <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B15" s="6"/>
       <c r="D15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B20" s="6"/>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
-      <c r="D21" s="6"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B22" s="6"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C24" s="6"/>
@@ -879,13 +901,12 @@
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -904,6 +925,7 @@
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
     </row>
@@ -963,6 +985,7 @@
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C45" s="6"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
     </row>
@@ -971,7 +994,6 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
     </row>
@@ -985,14 +1007,13 @@
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="52" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E52" s="6"/>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
     </row>
     <row r="53" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
       <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
     </row>
     <row r="54" spans="3:6" x14ac:dyDescent="0.15">
       <c r="C54" s="6"/>
@@ -1006,19 +1027,25 @@
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="57" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D57" s="6"/>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
     </row>
     <row r="58" spans="3:6" x14ac:dyDescent="0.15">
       <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-    </row>
-    <row r="60" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
